--- a/results/mp/deberta/corona/confidence/84/stop-words-0.35/avg_0.002_scores.xlsx
+++ b/results/mp/deberta/corona/confidence/84/stop-words-0.35/avg_0.002_scores.xlsx
@@ -124,15 +124,15 @@
     <t>ensure</t>
   </si>
   <si>
+    <t>dear</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
     <t>please</t>
   </si>
   <si>
-    <t>dear</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
     <t>heroes</t>
   </si>
   <si>
@@ -163,10 +163,10 @@
     <t>confidence</t>
   </si>
   <si>
+    <t>care</t>
+  </si>
+  <si>
     <t>like</t>
-  </si>
-  <si>
-    <t>care</t>
   </si>
   <si>
     <t>credit</t>
@@ -1549,25 +1549,25 @@
         <v>36</v>
       </c>
       <c r="K22">
-        <v>0.6883116883116883</v>
+        <v>0.6785714285714286</v>
       </c>
       <c r="L22">
-        <v>159</v>
+        <v>19</v>
       </c>
       <c r="M22">
-        <v>167</v>
+        <v>19</v>
       </c>
       <c r="N22">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O22">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q22">
-        <v>72</v>
+        <v>9</v>
       </c>
     </row>
     <row r="23" spans="10:17">
@@ -1575,25 +1575,25 @@
         <v>37</v>
       </c>
       <c r="K23">
-        <v>0.6785714285714286</v>
+        <v>0.6732673267326733</v>
       </c>
       <c r="L23">
-        <v>19</v>
+        <v>68</v>
       </c>
       <c r="M23">
-        <v>19</v>
+        <v>73</v>
       </c>
       <c r="N23">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="P23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q23">
-        <v>9</v>
+        <v>33</v>
       </c>
     </row>
     <row r="24" spans="10:17">
@@ -1601,25 +1601,25 @@
         <v>38</v>
       </c>
       <c r="K24">
-        <v>0.6732673267326733</v>
+        <v>0.6652719665271967</v>
       </c>
       <c r="L24">
-        <v>68</v>
+        <v>159</v>
       </c>
       <c r="M24">
-        <v>73</v>
+        <v>159</v>
       </c>
       <c r="N24">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="O24">
-        <v>0.06999999999999995</v>
+        <v>0</v>
       </c>
       <c r="P24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q24">
-        <v>33</v>
+        <v>80</v>
       </c>
     </row>
     <row r="25" spans="10:17">
@@ -1887,25 +1887,25 @@
         <v>49</v>
       </c>
       <c r="K35">
-        <v>0.5304878048780488</v>
+        <v>0.5227272727272727</v>
       </c>
       <c r="L35">
-        <v>174</v>
+        <v>46</v>
       </c>
       <c r="M35">
-        <v>186</v>
+        <v>47</v>
       </c>
       <c r="N35">
-        <v>0.9399999999999999</v>
+        <v>0.98</v>
       </c>
       <c r="O35">
-        <v>0.06000000000000005</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P35" t="b">
         <v>1</v>
       </c>
       <c r="Q35">
-        <v>154</v>
+        <v>42</v>
       </c>
     </row>
     <row r="36" spans="10:17">
@@ -1913,25 +1913,25 @@
         <v>50</v>
       </c>
       <c r="K36">
-        <v>0.5227272727272727</v>
+        <v>0.5117647058823529</v>
       </c>
       <c r="L36">
-        <v>46</v>
+        <v>174</v>
       </c>
       <c r="M36">
-        <v>47</v>
+        <v>174</v>
       </c>
       <c r="N36">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O36">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P36" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q36">
-        <v>42</v>
+        <v>166</v>
       </c>
     </row>
     <row r="37" spans="10:17">
